--- a/blog/草稿/计划/2023/excel/2023年下半年.xlsx
+++ b/blog/草稿/计划/2023/excel/2023年下半年.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="12975" tabRatio="944" firstSheet="2" activeTab="25"/>
+    <workbookView windowWidth="27930" windowHeight="12975" tabRatio="944" firstSheet="2" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="-1" sheetId="25" r:id="rId1"/>
@@ -33,6 +33,8 @@
     <sheet name="22" sheetId="27" r:id="rId24"/>
     <sheet name="23" sheetId="28" r:id="rId25"/>
     <sheet name="24" sheetId="29" r:id="rId26"/>
+    <sheet name="25" sheetId="30" r:id="rId27"/>
+    <sheet name="26" sheetId="31" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1'!$B$2:$K$28</definedName>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="1610">
   <si>
     <t>2023年6月第四周日志</t>
   </si>
@@ -5728,6 +5730,45 @@
     <t>看毛选</t>
   </si>
   <si>
+    <t>学习设计模式</t>
+  </si>
+  <si>
+    <t>2:25 学设计模式，到现在</t>
+  </si>
+  <si>
+    <t>3:44 睡觉</t>
+  </si>
+  <si>
+    <t>学习设计模式
+实现了可根据配置文件构造物种对象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:20 学到现在，睡觉
+</t>
+  </si>
+  <si>
+    <t>4:14 睡觉</t>
+  </si>
+  <si>
+    <t>7:50起床，直接去教室</t>
+  </si>
+  <si>
+    <t>7:30 起床洗漱</t>
+  </si>
+  <si>
+    <t>8:01 到教室，迟到一分钟
+学习Tokenizer和Parser的实现</t>
+  </si>
+  <si>
+    <t>8:30 去考场，考英语四级</t>
+  </si>
+  <si>
+    <t>尝试使用ts将其重新实现</t>
+  </si>
+  <si>
+    <t>9:00-11:20 考试</t>
+  </si>
+  <si>
     <t>10：44 睡醒
 .....</t>
   </si>
@@ -5737,7 +5778,22 @@
 11:45复习单词60个，外卖到刷牙洗漱</t>
   </si>
   <si>
+    <t>尝试在其基础之上实现解释器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:20 考完，回宿舍，泡面
+</t>
+  </si>
+  <si>
     <t>12:46 吃完饭</t>
+  </si>
+  <si>
+    <t>12:12 睡醒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:16 吃完饭，
+洗衣服
+</t>
   </si>
   <si>
     <t>13:19 刷youtobe到现在
@@ -5745,8 +5801,36 @@
 13:47出宿舍；13:58 到图书馆</t>
   </si>
   <si>
+    <t>13:08 到现在，复习单词80个
+洗漱拿外卖
+13:52 吃完饭</t>
+  </si>
+  <si>
+    <t>13:32 去吃饭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">洗衣服，晾衣服
+出宿舍，喂猫
+</t>
+  </si>
+  <si>
+    <t>13:19 睡醒</t>
+  </si>
+  <si>
     <t>。。。。
 ？？？？？？？？</t>
+  </si>
+  <si>
+    <t>14:20 回图书馆
+复习单词</t>
+  </si>
+  <si>
+    <t>14:04 喂猫
+到图书馆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:49 吃完饭
+</t>
   </si>
   <si>
     <t>15:10 废了
@@ -5754,10 +5838,28 @@
 15:28 到图书馆.....</t>
   </si>
   <si>
+    <t>15:04睡醒
+学设计模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">继续学设计模式
+</t>
+  </si>
+  <si>
+    <t>16:44 到现在共复习单词324个
+。。。。。。</t>
+  </si>
+  <si>
     <t>17:23 到现在共复习单词339个</t>
   </si>
   <si>
     <t>18:44 去吃饭</t>
+  </si>
+  <si>
+    <t>18:48 浪费时间到现在。</t>
+  </si>
+  <si>
+    <t>尝试实现一个编译器。</t>
   </si>
   <si>
     <t>20:57 复习单词479个
@@ -5771,6 +5873,9 @@
     <t>....</t>
   </si>
   <si>
+    <t>21:28 开始学游戏设计模式</t>
+  </si>
+  <si>
     <t>22:15 废物！！！！！</t>
   </si>
   <si>
@@ -5778,6 +5883,256 @@
   </si>
   <si>
     <t>23:10 洗漱完</t>
+  </si>
+  <si>
+    <t>尝试实现编译器</t>
+  </si>
+  <si>
+    <t>写编译器</t>
+  </si>
+  <si>
+    <t>0:55 
+躺会儿</t>
+  </si>
+  <si>
+    <t>0:47 javaEE大作业，改bug到现在</t>
+  </si>
+  <si>
+    <t>0:11 看会儿书</t>
+  </si>
+  <si>
+    <t>1:09 到现在差不多实现了算数运算的文法分析；
+睡觉</t>
+  </si>
+  <si>
+    <t>1:47 太孤独了，看本书，文城</t>
+  </si>
+  <si>
+    <t>1:56，写了这两天的日志。</t>
+  </si>
+  <si>
+    <t>1:06 洗漱完
+1:39 。。。。。。。。。。。。</t>
+  </si>
+  <si>
+    <t>尝试实现编译器
+2:45 实现了分词器，和Parser的基本结构；睡觉</t>
+  </si>
+  <si>
+    <t>看小说</t>
+  </si>
+  <si>
+    <t>5:03 睡醒；
+突然知道怎么消除文法的循环定义了
+括号表达式 = （逗号表达式）</t>
+  </si>
+  <si>
+    <t>5:38 看文城 70%
+5:39 吃点东西</t>
+  </si>
+  <si>
+    <t>逗号表达式=A [,A]*
+表达式=括号表达式 | 逗号表达式
+A = 括号表达式 | _A</t>
+  </si>
+  <si>
+    <t>6:26 到现在</t>
+  </si>
+  <si>
+    <t>6:27 到现在</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+7:42 差不多理清了表达式到二目表达式的文法；7:58 起床</t>
+  </si>
+  <si>
+    <t>7:56 到现在，实现了表达式语句，if语句，while语句，变量声明。</t>
+  </si>
+  <si>
+    <t>7:50 睡醒</t>
+  </si>
+  <si>
+    <t>8:03 到教室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9:30 到图书馆
+</t>
+  </si>
+  <si>
+    <t>9:55 睡觉</t>
+  </si>
+  <si>
+    <t>10:30 睡醒
+吃份泡面</t>
+  </si>
+  <si>
+    <t>10:25 下课
+回宿舍，洗漱
+10:51，躺床上</t>
+  </si>
+  <si>
+    <t>11:54 到图书馆</t>
+  </si>
+  <si>
+    <t>11:28 睡醒</t>
+  </si>
+  <si>
+    <t>补之前的简易编译器的实现笔记</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+12:52 理清并完成了从逗号表达式到字面量的文法</t>
+  </si>
+  <si>
+    <t>13:31 睡醒</t>
+  </si>
+  <si>
+    <t>14:26 睡到现在
+看js标准的文法定义</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+14:57 吃完饭</t>
+  </si>
+  <si>
+    <t>15:21 出宿舍
+去图书馆</t>
+  </si>
+  <si>
+    <t>15:24 
+睡醒</t>
+  </si>
+  <si>
+    <t>15:24 到图书馆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+16:35 去吃饭</t>
+  </si>
+  <si>
+    <t>学编译原理</t>
+  </si>
+  <si>
+    <t>16:51 睡醒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:12 回图书馆
+</t>
+  </si>
+  <si>
+    <t>17:21 交完javaWeb作业
+推翻从来，
+开始从头实现词法分析和文法分析。</t>
+  </si>
+  <si>
+    <t>实现了作用域</t>
+  </si>
+  <si>
+    <t>17:30 睡醒</t>
+  </si>
+  <si>
+    <t>搭建结构，实现词法分析和文法分析的框架，该成两个类不互相依赖的结构</t>
+  </si>
+  <si>
+    <t>重新，实现表达式语句</t>
+  </si>
+  <si>
+    <t>大概理清并实现了表达式语句和变量声明语句，但还有点问题。</t>
+  </si>
+  <si>
+    <t>20:47 实现了函数调用的功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+21:55 回宿舍</t>
+  </si>
+  <si>
+    <t>bug修好了</t>
+  </si>
+  <si>
+    <t>22:41 摆烂到现在</t>
+  </si>
+  <si>
+    <t>22:03 回宿舍</t>
+  </si>
+  <si>
+    <t>刷b站看游戏制作相关内容</t>
+  </si>
+  <si>
+    <t>0:24 写日志
+0:38 晾完衣服</t>
+  </si>
+  <si>
+    <t>熬夜</t>
+  </si>
+  <si>
+    <t>2:17 新想法：我的世界 + 饥荒 + RTS
+塔防</t>
+  </si>
+  <si>
+    <t>3:24 睡觉</t>
+  </si>
+  <si>
+    <t>到教室，考试编译原理</t>
+  </si>
+  <si>
+    <t>忘了，应该还在学。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+考完，去图书馆</t>
+  </si>
+  <si>
+    <t>继续学游戏设计模式</t>
+  </si>
+  <si>
+    <t>12:02 去吃饭</t>
+  </si>
+  <si>
+    <t>13:23 到教室，准备考试
+javaEE考试</t>
+  </si>
+  <si>
+    <t>linux期末考试</t>
+  </si>
+  <si>
+    <t>考完</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+考完。</t>
+  </si>
+  <si>
+    <t>15:29 睡到现在。</t>
+  </si>
+  <si>
+    <t>arduino设备调试，准备期末考试</t>
+  </si>
+  <si>
+    <t>16:10 到图书馆</t>
+  </si>
+  <si>
+    <t>17:44 修改下简历，准备投简历找工作。</t>
+  </si>
+  <si>
+    <t>回宿舍
+ 睡觉</t>
+  </si>
+  <si>
+    <t>和舍友出去吃饭，KTV...</t>
+  </si>
+  <si>
+    <t>19:25 刷招聘软件，到现在。</t>
+  </si>
+  <si>
+    <t>22:12 到宿舍</t>
+  </si>
+  <si>
+    <t>回宿舍。</t>
+  </si>
+  <si>
+    <t>洗漱，洗衣</t>
   </si>
 </sst>
 </file>
@@ -21166,7 +21521,7 @@
   <sheetPr/>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B3" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="K31" sqref="B7:K31"/>
     </sheetView>
   </sheetViews>
@@ -21930,8 +22285,8 @@
   <sheetPr/>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -22058,7 +22413,9 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="K8" s="25" t="s">
+        <v>1494</v>
+      </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="2:11">
       <c r="B9" s="22">
@@ -22076,7 +22433,9 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="K9" s="25" t="s">
+        <v>1494</v>
+      </c>
     </row>
     <row r="10" ht="50" customHeight="1" spans="2:11">
       <c r="B10" s="22">
@@ -22093,7 +22452,748 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="J10" s="25" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1" spans="2:11">
+      <c r="B11" s="22">
+        <v>0.125</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1" spans="2:11">
+      <c r="B12" s="22">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" ht="50" customHeight="1" spans="2:11">
+      <c r="B13" s="22">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" ht="50" customHeight="1" spans="2:11">
+      <c r="B14" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" ht="50" customHeight="1" spans="2:11">
+      <c r="B15" s="22">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25" t="s">
+        <v>1500</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>1501</v>
+      </c>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" ht="50" customHeight="1" spans="2:11">
+      <c r="B16" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" ht="50" customHeight="1" spans="2:11">
+      <c r="B17" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>1504</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" ht="50" customHeight="1" spans="2:11">
+      <c r="B18" s="22">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25" t="s">
+        <v>1504</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" ht="50" customHeight="1" spans="2:11">
+      <c r="B19" s="22">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" ht="50" customHeight="1" spans="2:11">
+      <c r="B20" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>1512</v>
+      </c>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" ht="50" customHeight="1" spans="2:11">
+      <c r="B21" s="22">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1" spans="2:11">
+      <c r="B22" s="22">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="E22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="23" ht="50" customHeight="1" spans="2:11">
+      <c r="B23" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" ht="50" customHeight="1" spans="2:11">
+      <c r="B24" s="22">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" ht="50" customHeight="1" spans="2:11">
+      <c r="B25" s="22">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" ht="50" customHeight="1" spans="2:11">
+      <c r="B26" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="27" ht="50" customHeight="1" spans="2:11">
+      <c r="B27" s="22">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="28" ht="50" customHeight="1" spans="2:11">
+      <c r="B28" s="22">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="25" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="29" ht="50" customHeight="1" spans="2:11">
+      <c r="B29" s="22">
+        <v>0.875</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="30" ht="50" customHeight="1" spans="2:11">
+      <c r="B30" s="22">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="31" ht="50" customHeight="1" spans="2:11">
+      <c r="B31" s="27">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B4:D6"/>
+    <mergeCell ref="E4:K6"/>
+  </mergeCells>
+  <pageMargins left="0.393055555555556" right="0.393055555555556" top="0.393055555555556" bottom="0.393055555555556" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K32"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.36666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.36666666666667" customWidth="1"/>
+    <col min="3" max="3" width="1.63333333333333" customWidth="1"/>
+    <col min="4" max="4" width="6.36666666666667" customWidth="1"/>
+    <col min="5" max="7" width="30.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="9" max="9" width="31.875" customWidth="1"/>
+    <col min="10" max="10" width="32.375" customWidth="1"/>
+    <col min="11" max="11" width="30.6333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="14.25"/>
+    <row r="2" ht="45" customHeight="1" spans="2:11">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" ht="45" customHeight="1" spans="2:11">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="2:11">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="21">
+        <v>45278</v>
+      </c>
+      <c r="F7" s="21">
+        <v>45279</v>
+      </c>
+      <c r="G7" s="21">
+        <v>45280</v>
+      </c>
+      <c r="H7" s="21">
+        <v>45281</v>
+      </c>
+      <c r="I7" s="21">
+        <v>45282</v>
+      </c>
+      <c r="J7" s="21">
+        <v>45283</v>
+      </c>
+      <c r="K7" s="21">
+        <v>45284</v>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="2:11">
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1" spans="2:11">
+      <c r="B9" s="22">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.0833333333333334</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>1543</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" ht="50" customHeight="1" spans="2:11">
+      <c r="B10" s="22">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25" t="s">
+        <v>1547</v>
+      </c>
       <c r="K10" s="25"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="2:11">
@@ -22126,9 +23226,13 @@
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
     </row>
@@ -22143,12 +23247,18 @@
         <v>0.25</v>
       </c>
       <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>1548</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="K13" s="25" t="s">
+        <v>1549</v>
+      </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:11">
       <c r="B14" s="22">
@@ -22161,12 +23271,18 @@
         <v>0.291666666666667</v>
       </c>
       <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>1550</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="J14" s="25" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>1552</v>
+      </c>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:11">
       <c r="B15" s="22">
@@ -22179,10 +23295,16 @@
         <v>0.333333333333333</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>1553</v>
+      </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>1554</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>1555</v>
+      </c>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
     </row>
@@ -22200,7 +23322,9 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>1556</v>
+      </c>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
     </row>
@@ -22215,9 +23339,13 @@
         <v>0.416666666666667</v>
       </c>
       <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>1557</v>
+      </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>1558</v>
+      </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
@@ -22233,12 +23361,14 @@
         <v>0.458333333333333</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>1494</v>
+        <v>1559</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="I18" s="25" t="s">
+        <v>1560</v>
+      </c>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
     </row>
@@ -22253,13 +23383,15 @@
         <v>0.5</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>1495</v>
+        <v>1561</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="J19" s="25" t="s">
+        <v>1562</v>
+      </c>
       <c r="K19" s="25"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="2:11">
@@ -22273,9 +23405,11 @@
         <v>0.541666666666667</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F20" s="25"/>
+        <v>1563</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>1564</v>
+      </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
@@ -22293,12 +23427,12 @@
         <v>0.583333333333333</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="G21" s="25"/>
+        <v>1563</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25" t="s">
+        <v>1565</v>
+      </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
@@ -22314,13 +23448,15 @@
       <c r="D22" s="24">
         <v>0.625</v>
       </c>
-      <c r="E22" t="s">
-        <v>287</v>
+      <c r="E22" s="25" t="s">
+        <v>1563</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>1498</v>
-      </c>
-      <c r="G22" s="25"/>
+        <v>1566</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>1567</v>
+      </c>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
@@ -22337,12 +23473,726 @@
         <v>0.666666666666667</v>
       </c>
       <c r="E23" s="25" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" ht="50" customHeight="1" spans="2:11">
+      <c r="B24" s="22">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="25" ht="50" customHeight="1" spans="2:11">
+      <c r="B25" s="22">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>1575</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="26" ht="50" customHeight="1" spans="2:11">
+      <c r="B26" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" ht="50" customHeight="1" spans="2:11">
+      <c r="B27" s="22">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="25" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" ht="50" customHeight="1" spans="2:11">
+      <c r="B28" s="22">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" ht="50" customHeight="1" spans="2:11">
+      <c r="B29" s="22">
+        <v>0.875</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>1499</v>
-      </c>
-      <c r="G23" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" ht="50" customHeight="1" spans="2:11">
+      <c r="B30" s="22">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" ht="50" customHeight="1" spans="2:11">
+      <c r="B31" s="27">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B4:D6"/>
+    <mergeCell ref="E4:K6"/>
+  </mergeCells>
+  <pageMargins left="0.393055555555556" right="0.393055555555556" top="0.393055555555556" bottom="0.393055555555556" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.36666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.36666666666667" customWidth="1"/>
+    <col min="3" max="3" width="1.63333333333333" customWidth="1"/>
+    <col min="4" max="4" width="6.36666666666667" customWidth="1"/>
+    <col min="5" max="7" width="30.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="9" max="9" width="31.875" customWidth="1"/>
+    <col min="10" max="10" width="32.375" customWidth="1"/>
+    <col min="11" max="11" width="30.6333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="14.25"/>
+    <row r="2" ht="45" customHeight="1" spans="2:11">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" ht="45" customHeight="1" spans="2:11">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="2:11">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="21">
+        <v>45285</v>
+      </c>
+      <c r="F7" s="21">
+        <v>45286</v>
+      </c>
+      <c r="G7" s="21">
+        <v>45287</v>
+      </c>
+      <c r="H7" s="21">
+        <v>45288</v>
+      </c>
+      <c r="I7" s="21">
+        <v>45289</v>
+      </c>
+      <c r="J7" s="21">
+        <v>45290</v>
+      </c>
+      <c r="K7" s="21">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="2:11">
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" ht="50" customHeight="1" spans="2:11">
+      <c r="B9" s="22">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.0833333333333334</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" ht="50" customHeight="1" spans="2:11">
+      <c r="B10" s="22">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" ht="50" customHeight="1" spans="2:11">
+      <c r="B11" s="22">
+        <v>0.125</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" ht="50" customHeight="1" spans="2:11">
+      <c r="B12" s="22">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" ht="50" customHeight="1" spans="2:11">
+      <c r="B13" s="22">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" ht="50" customHeight="1" spans="2:11">
+      <c r="B14" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" ht="50" customHeight="1" spans="2:11">
+      <c r="B15" s="22">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" ht="50" customHeight="1" spans="2:11">
+      <c r="B16" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" ht="50" customHeight="1" spans="2:11">
+      <c r="B17" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" ht="50" customHeight="1" spans="2:11">
+      <c r="B18" s="22">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" ht="50" customHeight="1" spans="2:11">
+      <c r="B19" s="22">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" ht="50" customHeight="1" spans="2:11">
+      <c r="B20" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" ht="50" customHeight="1" spans="2:11">
+      <c r="B21" s="22">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" ht="50" customHeight="1" spans="2:11">
+      <c r="B22" s="22">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" ht="50" customHeight="1" spans="2:11">
+      <c r="B23" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25" t="s">
+        <v>1600</v>
+      </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
@@ -22359,10 +24209,14 @@
         <v>0.708333333333333</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+        <v>1601</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
@@ -22379,10 +24233,14 @@
         <v>0.75</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+        <v>779</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
@@ -22399,10 +24257,12 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>1501</v>
+        <v>1604</v>
       </c>
       <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="25" t="s">
+        <v>1605</v>
+      </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -22418,7 +24278,12 @@
       <c r="D27" s="24">
         <v>0.833333333333333</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="E27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>1606</v>
+      </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
@@ -22435,10 +24300,10 @@
       <c r="D28" s="24">
         <v>0.875</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="25" t="s">
-        <v>1502</v>
-      </c>
+      <c r="E28" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
@@ -22456,11 +24321,9 @@
         <v>0.916666666666667</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>1504</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
@@ -22478,12 +24341,14 @@
         <v>0.958333333333333</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>1505</v>
+        <v>14</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="G30" s="25"/>
+        <v>1607</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>1608</v>
+      </c>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
@@ -22500,12 +24365,14 @@
         <v>1</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>1506</v>
+        <v>14</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>1507</v>
-      </c>
-      <c r="G31" s="25"/>
+        <v>613</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>1609</v>
+      </c>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>

--- a/blog/草稿/计划/2023/excel/2023年下半年.xlsx
+++ b/blog/草稿/计划/2023/excel/2023年下半年.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="1610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="1640">
   <si>
     <t>2023年6月第四周日志</t>
   </si>
@@ -6061,20 +6061,56 @@
   </si>
   <si>
     <t>0:24 写日志
-0:38 晾完衣服</t>
+0:38 晾完衣服
+学游戏设计模式</t>
+  </si>
+  <si>
+    <t>0:27 睡觉
+看文城，</t>
   </si>
   <si>
     <t>熬夜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看完文城，看费曼物理学讲义
+</t>
   </si>
   <si>
     <t>2:17 新想法：我的世界 + 饥荒 + RTS
 塔防</t>
   </si>
   <si>
+    <t>看到2:27 睡觉</t>
+  </si>
+  <si>
     <t>3:24 睡觉</t>
   </si>
   <si>
+    <t>4：19 打算睡觉</t>
+  </si>
+  <si>
+    <t>看文城</t>
+  </si>
+  <si>
+    <t>起床，准备去考试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+7:30 睡醒</t>
+  </si>
+  <si>
     <t>到教室，考试编译原理</t>
+  </si>
+  <si>
+    <t>考试，机器人</t>
+  </si>
+  <si>
+    <t>最后一场考试....</t>
+  </si>
+  <si>
+    <t>8:12 起床洗漱
+8:30 洗漱完去吃饭
+8:48 到处修理，终于找到进混沌店的路</t>
   </si>
   <si>
     <t>忘了，应该还在学。</t>
@@ -6084,20 +6120,69 @@
 考完，去图书馆</t>
   </si>
   <si>
+    <t xml:space="preserve">
+去图书馆</t>
+  </si>
+  <si>
+    <t>9:08 到家
+？？？？？？？？？？？？</t>
+  </si>
+  <si>
     <t>继续学游戏设计模式</t>
   </si>
   <si>
+    <t>忘了具体在干啥
+学设计模式，投简历</t>
+  </si>
+  <si>
+    <t>10:07:00
+刷B站。
+10:56 ....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+11:49 吃饭</t>
+  </si>
+  <si>
+    <t>回宿舍,收拾东西，点外卖吃饭</t>
+  </si>
+  <si>
+    <t>11:01 学习串口通信，nodejs</t>
+  </si>
+  <si>
     <t>12:02 去吃饭</t>
+  </si>
+  <si>
+    <t>学习串口通信</t>
   </si>
   <si>
     <t>13:23 到教室，准备考试
 javaEE考试</t>
   </si>
   <si>
+    <t>学设计模式，投简历。</t>
+  </si>
+  <si>
+    <t>躺会儿。。。</t>
+  </si>
+  <si>
+    <t>复习Electron进程通信相关知识</t>
+  </si>
+  <si>
+    <t>13:04 睡醒
+13:32 洗漱完</t>
+  </si>
+  <si>
     <t>linux期末考试</t>
   </si>
   <si>
     <t>考完</t>
+  </si>
+  <si>
+    <t>尝试修改Electron-vite模板为依赖注入写法</t>
+  </si>
+  <si>
+    <t>学习vscode在Electron中的进程通信方法。</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -6107,6 +6192,9 @@
     <t>15:29 睡到现在。</t>
   </si>
   <si>
+    <t>15:30 坐上大巴</t>
+  </si>
+  <si>
     <t>arduino设备调试，准备期末考试</t>
   </si>
   <si>
@@ -6114,22 +6202,38 @@
   </si>
   <si>
     <t>17:44 修改下简历，准备投简历找工作。</t>
+  </si>
+  <si>
+    <t>尝试封装实现双向通信。</t>
   </si>
   <si>
     <t>回宿舍
  睡觉</t>
   </si>
   <si>
+    <t>18:03 吃饭
+回图书馆</t>
+  </si>
+  <si>
     <t>和舍友出去吃饭，KTV...</t>
   </si>
   <si>
     <t>19:25 刷招聘软件，到现在。</t>
   </si>
   <si>
+    <t>19:07 到家</t>
+  </si>
+  <si>
     <t>22:12 到宿舍</t>
   </si>
   <si>
+    <t>22:03 喂猫，回宿舍</t>
+  </si>
+  <si>
     <t>回宿舍。</t>
+  </si>
+  <si>
+    <t>洗漱，睡觉</t>
   </si>
   <si>
     <t>洗漱，洗衣</t>
@@ -23718,8 +23822,8 @@
   <sheetPr/>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23844,15 +23948,17 @@
       <c r="F8" s="25" t="s">
         <v>1586</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="I8" s="25" t="s">
         <v>1587</v>
       </c>
-      <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="K8" s="25" t="s">
+        <v>1588</v>
+      </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="2:11">
       <c r="B9" s="22">
@@ -23865,18 +23971,22 @@
         <v>0.0833333333333334</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="K9" s="25" t="s">
+        <v>1590</v>
+      </c>
     </row>
     <row r="10" ht="50" customHeight="1" spans="2:11">
       <c r="B10" s="22">
@@ -23889,18 +23999,22 @@
         <v>0.125</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>1589</v>
-      </c>
-      <c r="G10" s="25" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="K10" s="25" t="s">
+        <v>1592</v>
+      </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="2:11">
       <c r="B11" s="22">
@@ -23913,16 +24027,18 @@
         <v>0.166666666666667</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+        <v>1593</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
     </row>
@@ -23937,14 +24053,16 @@
         <v>0.208333333333333</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>1594</v>
+      </c>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
     </row>
@@ -23959,14 +24077,16 @@
         <v>0.25</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F13" s="25"/>
-      <c r="G13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>1595</v>
+      </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
     </row>
@@ -23981,14 +24101,16 @@
         <v>0.291666666666667</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F14" s="25"/>
-      <c r="G14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>1595</v>
+      </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
     </row>
@@ -24003,17 +24125,21 @@
         <v>0.333333333333333</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>1597</v>
+      </c>
       <c r="K15" s="25"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="2:11">
@@ -24030,14 +24156,20 @@
         <v>1572</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>1591</v>
+        <v>1598</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+        <v>1599</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>1600</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>1601</v>
+      </c>
       <c r="K16" s="25"/>
     </row>
     <row r="17" ht="50" customHeight="1" spans="2:11">
@@ -24051,17 +24183,21 @@
         <v>0.416666666666667</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>1592</v>
+        <v>1602</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="25"/>
+        <v>1604</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="25" t="s">
+        <v>1605</v>
+      </c>
       <c r="K17" s="25"/>
     </row>
     <row r="18" ht="50" customHeight="1" spans="2:11">
@@ -24076,14 +24212,18 @@
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25" t="s">
-        <v>1594</v>
+        <v>1606</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="25"/>
+        <v>1607</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
+      <c r="J18" s="26" t="s">
+        <v>1608</v>
+      </c>
       <c r="K18" s="25"/>
     </row>
     <row r="19" ht="50" customHeight="1" spans="2:11">
@@ -24098,14 +24238,20 @@
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25" t="s">
-        <v>1594</v>
+        <v>1606</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+        <v>1609</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>1610</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>1611</v>
+      </c>
       <c r="K19" s="25"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="2:11">
@@ -24120,14 +24266,18 @@
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25" t="s">
-        <v>1595</v>
+        <v>1612</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="25"/>
+        <v>891</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="J20" s="25" t="s">
+        <v>1613</v>
+      </c>
       <c r="K20" s="25"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="2:11">
@@ -24142,15 +24292,23 @@
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25" t="s">
-        <v>1596</v>
+        <v>1614</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+        <v>1615</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>1618</v>
+      </c>
     </row>
     <row r="22" ht="50" customHeight="1" spans="2:11">
       <c r="B22" s="22">
@@ -24163,18 +24321,22 @@
         <v>0.625</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>1597</v>
+        <v>1619</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>1598</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="25"/>
+        <v>1620</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>1622</v>
+      </c>
     </row>
     <row r="23" ht="50" customHeight="1" spans="2:11">
       <c r="B23" s="22">
@@ -24187,16 +24349,22 @@
         <v>0.666666666666667</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>1599</v>
+        <v>1623</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="G23" s="25" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>1622</v>
+      </c>
     </row>
     <row r="24" ht="50" customHeight="1" spans="2:11">
       <c r="B24" s="22">
@@ -24209,18 +24377,22 @@
         <v>0.708333333333333</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>1601</v>
+        <v>1626</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G24" s="25" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="J24" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>1622</v>
+      </c>
     </row>
     <row r="25" ht="50" customHeight="1" spans="2:11">
       <c r="B25" s="22">
@@ -24236,15 +24408,19 @@
         <v>779</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>1603</v>
-      </c>
-      <c r="G25" s="25" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="J25" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>1629</v>
+      </c>
     </row>
     <row r="26" ht="50" customHeight="1" spans="2:11">
       <c r="B26" s="22">
@@ -24257,16 +24433,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>1604</v>
+        <v>1630</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25" t="s">
-        <v>1605</v>
-      </c>
-      <c r="H26" s="25"/>
+        <v>1631</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>1632</v>
+      </c>
       <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="J26" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>1629</v>
+      </c>
     </row>
     <row r="27" ht="50" customHeight="1" spans="2:11">
       <c r="B27" s="22">
@@ -24282,13 +24464,19 @@
         <v>32</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>1606</v>
+        <v>1633</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="I27" s="25" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>1629</v>
+      </c>
     </row>
     <row r="28" ht="50" customHeight="1" spans="2:11">
       <c r="B28" s="22">
@@ -24307,8 +24495,12 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="J28" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>1629</v>
+      </c>
     </row>
     <row r="29" ht="50" customHeight="1" spans="2:11">
       <c r="B29" s="22">
@@ -24327,8 +24519,12 @@
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="J29" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>1629</v>
+      </c>
     </row>
     <row r="30" ht="50" customHeight="1" spans="2:11">
       <c r="B30" s="22">
@@ -24344,15 +24540,23 @@
         <v>14</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>1607</v>
+        <v>1635</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>1608</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+        <v>1636</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>1629</v>
+      </c>
     </row>
     <row r="31" ht="50" customHeight="1" spans="2:11">
       <c r="B31" s="27">
@@ -24371,12 +24575,18 @@
         <v>613</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>1609</v>
-      </c>
-      <c r="H31" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>1639</v>
+      </c>
       <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="J31" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>1629</v>
+      </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="30"/>
